--- a/classes.xlsx
+++ b/classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\SilkCentralDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB9000F-AF72-4163-B241-E23B403A262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7364C40D-B67F-4442-88A9-8F084308599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{632FB0EA-6DA6-494B-8AF3-BE74C1C6A47C}"/>
   </bookViews>
@@ -3107,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9D55B0-560E-470E-A75E-3CD47663A7F0}">
   <dimension ref="A1:CZ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="CF10" sqref="CF10"/>
+    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="CF15" sqref="CF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,292 +3136,292 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="P1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="R1" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="S1" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="T1" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="U1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="V1" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="W1" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="X1" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="Y1" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="Z1" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="AA1" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="AB1" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="AC1" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="AF1" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="AG1" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="AH1" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="AI1" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="AJ1" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="AK1" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="AL1" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="AM1" t="s">
-        <v>29</v>
+        <v>295</v>
       </c>
       <c r="AN1" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="AO1" t="s">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="AP1" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="AQ1" t="s">
-        <v>29</v>
+        <v>331</v>
       </c>
       <c r="AR1" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="AS1" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="AT1" t="s">
-        <v>29</v>
+        <v>358</v>
       </c>
       <c r="AU1" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="AV1" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="AW1" t="s">
-        <v>29</v>
+        <v>385</v>
       </c>
       <c r="AX1" t="s">
-        <v>29</v>
+        <v>394</v>
       </c>
       <c r="AY1" t="s">
-        <v>29</v>
+        <v>403</v>
       </c>
       <c r="AZ1" t="s">
-        <v>29</v>
+        <v>412</v>
       </c>
       <c r="BA1" t="s">
-        <v>29</v>
+        <v>421</v>
       </c>
       <c r="BB1" t="s">
-        <v>29</v>
+        <v>430</v>
       </c>
       <c r="BC1" t="s">
-        <v>29</v>
+        <v>439</v>
       </c>
       <c r="BD1" t="s">
-        <v>29</v>
+        <v>448</v>
       </c>
       <c r="BE1" t="s">
-        <v>29</v>
+        <v>457</v>
       </c>
       <c r="BF1" t="s">
-        <v>29</v>
+        <v>466</v>
       </c>
       <c r="BG1" t="s">
-        <v>29</v>
+        <v>475</v>
       </c>
       <c r="BH1" t="s">
-        <v>29</v>
+        <v>484</v>
       </c>
       <c r="BI1" t="s">
-        <v>29</v>
+        <v>493</v>
       </c>
       <c r="BJ1" t="s">
-        <v>29</v>
+        <v>502</v>
       </c>
       <c r="BK1" t="s">
-        <v>29</v>
+        <v>511</v>
       </c>
       <c r="BL1" t="s">
-        <v>29</v>
+        <v>520</v>
       </c>
       <c r="BM1" t="s">
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="BN1" t="s">
-        <v>29</v>
+        <v>538</v>
       </c>
       <c r="BO1" t="s">
-        <v>29</v>
+        <v>547</v>
       </c>
       <c r="BP1" t="s">
-        <v>29</v>
+        <v>556</v>
       </c>
       <c r="BQ1" t="s">
-        <v>29</v>
+        <v>565</v>
       </c>
       <c r="BR1" t="s">
-        <v>29</v>
+        <v>574</v>
       </c>
       <c r="BS1" t="s">
-        <v>29</v>
+        <v>583</v>
       </c>
       <c r="BT1" t="s">
-        <v>29</v>
+        <v>592</v>
       </c>
       <c r="BU1" t="s">
-        <v>29</v>
+        <v>601</v>
       </c>
       <c r="BV1" t="s">
-        <v>29</v>
+        <v>610</v>
       </c>
       <c r="BW1" t="s">
-        <v>29</v>
+        <v>619</v>
       </c>
       <c r="BX1" t="s">
-        <v>29</v>
+        <v>628</v>
       </c>
       <c r="BY1" t="s">
-        <v>29</v>
+        <v>637</v>
       </c>
       <c r="BZ1" t="s">
-        <v>29</v>
+        <v>646</v>
       </c>
       <c r="CA1" t="s">
-        <v>29</v>
+        <v>655</v>
       </c>
       <c r="CB1" t="s">
-        <v>29</v>
+        <v>664</v>
       </c>
       <c r="CC1" t="s">
-        <v>29</v>
+        <v>673</v>
       </c>
       <c r="CD1" t="s">
-        <v>29</v>
+        <v>682</v>
       </c>
       <c r="CE1" t="s">
-        <v>29</v>
+        <v>691</v>
       </c>
       <c r="CF1" t="s">
-        <v>29</v>
+        <v>700</v>
       </c>
       <c r="CG1" t="s">
-        <v>29</v>
+        <v>709</v>
       </c>
       <c r="CH1" t="s">
-        <v>29</v>
+        <v>718</v>
       </c>
       <c r="CI1" t="s">
-        <v>29</v>
+        <v>727</v>
       </c>
       <c r="CJ1" t="s">
-        <v>29</v>
+        <v>736</v>
       </c>
       <c r="CK1" t="s">
-        <v>29</v>
+        <v>745</v>
       </c>
       <c r="CL1" t="s">
-        <v>29</v>
+        <v>754</v>
       </c>
       <c r="CM1" t="s">
-        <v>29</v>
+        <v>763</v>
       </c>
       <c r="CN1" t="s">
-        <v>29</v>
+        <v>772</v>
       </c>
       <c r="CO1" t="s">
-        <v>29</v>
+        <v>781</v>
       </c>
       <c r="CP1" t="s">
-        <v>29</v>
+        <v>790</v>
       </c>
       <c r="CQ1" t="s">
-        <v>29</v>
+        <v>799</v>
       </c>
       <c r="CR1" t="s">
-        <v>29</v>
+        <v>808</v>
       </c>
       <c r="CS1" t="s">
-        <v>29</v>
+        <v>817</v>
       </c>
       <c r="CT1" t="s">
-        <v>29</v>
+        <v>826</v>
       </c>
       <c r="CU1" t="s">
-        <v>29</v>
+        <v>835</v>
       </c>
       <c r="CV1" t="s">
-        <v>29</v>
+        <v>844</v>
       </c>
       <c r="CW1" t="s">
-        <v>29</v>
+        <v>853</v>
       </c>
       <c r="CX1" t="s">
-        <v>29</v>
+        <v>862</v>
       </c>
       <c r="CY1" t="s">
-        <v>29</v>
+        <v>871</v>
       </c>
       <c r="CZ1" t="s">
         <v>903</v>

--- a/classes.xlsx
+++ b/classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\SilkCentralDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18E83B8-12CA-4F86-B64E-34C485DF4CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB1B97-6FF2-4989-8DD0-46937584F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{632FB0EA-6DA6-494B-8AF3-BE74C1C6A47C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15120" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15121" uniqueCount="128">
   <si>
     <t>a1</t>
   </si>
@@ -418,6 +418,9 @@
   <si>
     <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
+  <si>
+    <t>silkid</t>
+  </si>
 </sst>
 </file>
 
@@ -774,15 +777,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9D55B0-560E-470E-A75E-3CD47663A7F0}">
-  <dimension ref="A1:DV120"/>
+  <dimension ref="A1:DW120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DG1" workbookViewId="0">
-      <selection activeCell="DN9" sqref="DN9"/>
+    <sheetView tabSelected="1" topLeftCell="CW1" workbookViewId="0">
+      <selection activeCell="DW15" sqref="DW15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1161,8 +1164,11 @@
       <c r="DV1" t="s">
         <v>125</v>
       </c>
+      <c r="DW1" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="2" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -1541,8 +1547,11 @@
       <c r="DV2" t="s">
         <v>126</v>
       </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -1921,8 +1930,11 @@
       <c r="DV3" t="s">
         <v>126</v>
       </c>
+      <c r="DW3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -2301,8 +2313,11 @@
       <c r="DV4" t="s">
         <v>126</v>
       </c>
+      <c r="DW4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -2681,8 +2696,11 @@
       <c r="DV5" t="s">
         <v>126</v>
       </c>
+      <c r="DW5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -3061,8 +3079,11 @@
       <c r="DV6" t="s">
         <v>126</v>
       </c>
+      <c r="DW6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -3441,8 +3462,11 @@
       <c r="DV7" t="s">
         <v>126</v>
       </c>
+      <c r="DW7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -3821,8 +3845,11 @@
       <c r="DV8" t="s">
         <v>126</v>
       </c>
+      <c r="DW8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -4201,8 +4228,11 @@
       <c r="DV9" t="s">
         <v>126</v>
       </c>
+      <c r="DW9">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>126</v>
       </c>
@@ -4581,8 +4611,11 @@
       <c r="DV10" t="s">
         <v>126</v>
       </c>
+      <c r="DW10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -4961,8 +4994,11 @@
       <c r="DV11" t="s">
         <v>126</v>
       </c>
+      <c r="DW11">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -5341,8 +5377,11 @@
       <c r="DV12" t="s">
         <v>126</v>
       </c>
+      <c r="DW12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -5721,8 +5760,11 @@
       <c r="DV13" t="s">
         <v>126</v>
       </c>
+      <c r="DW13">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -6101,8 +6143,11 @@
       <c r="DV14" t="s">
         <v>126</v>
       </c>
+      <c r="DW14">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -6481,8 +6526,11 @@
       <c r="DV15" t="s">
         <v>126</v>
       </c>
+      <c r="DW15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="16" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -6861,8 +6909,11 @@
       <c r="DV16" t="s">
         <v>126</v>
       </c>
+      <c r="DW16">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -7241,8 +7292,11 @@
       <c r="DV17" t="s">
         <v>126</v>
       </c>
+      <c r="DW17">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -7621,8 +7675,11 @@
       <c r="DV18" t="s">
         <v>126</v>
       </c>
+      <c r="DW18">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -8001,8 +8058,11 @@
       <c r="DV19" t="s">
         <v>126</v>
       </c>
+      <c r="DW19">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -8381,8 +8441,11 @@
       <c r="DV20" t="s">
         <v>126</v>
       </c>
+      <c r="DW20">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8761,8 +8824,11 @@
       <c r="DV21" t="s">
         <v>126</v>
       </c>
+      <c r="DW21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="22" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -9141,8 +9207,11 @@
       <c r="DV22" t="s">
         <v>126</v>
       </c>
+      <c r="DW22">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -9521,8 +9590,11 @@
       <c r="DV23" t="s">
         <v>126</v>
       </c>
+      <c r="DW23">
+        <v>21</v>
+      </c>
     </row>
-    <row r="24" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -9901,8 +9973,11 @@
       <c r="DV24" t="s">
         <v>126</v>
       </c>
+      <c r="DW24">
+        <v>22</v>
+      </c>
     </row>
-    <row r="25" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -10281,8 +10356,11 @@
       <c r="DV25" t="s">
         <v>126</v>
       </c>
+      <c r="DW25">
+        <v>23</v>
+      </c>
     </row>
-    <row r="26" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -10661,8 +10739,11 @@
       <c r="DV26" t="s">
         <v>126</v>
       </c>
+      <c r="DW26">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -11041,8 +11122,11 @@
       <c r="DV27" t="s">
         <v>126</v>
       </c>
+      <c r="DW27">
+        <v>25</v>
+      </c>
     </row>
-    <row r="28" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -11421,8 +11505,11 @@
       <c r="DV28" t="s">
         <v>126</v>
       </c>
+      <c r="DW28">
+        <v>26</v>
+      </c>
     </row>
-    <row r="29" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -11801,8 +11888,11 @@
       <c r="DV29" t="s">
         <v>126</v>
       </c>
+      <c r="DW29">
+        <v>27</v>
+      </c>
     </row>
-    <row r="30" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -12181,8 +12271,11 @@
       <c r="DV30" t="s">
         <v>126</v>
       </c>
+      <c r="DW30">
+        <v>28</v>
+      </c>
     </row>
-    <row r="31" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -12561,8 +12654,11 @@
       <c r="DV31" t="s">
         <v>126</v>
       </c>
+      <c r="DW31">
+        <v>29</v>
+      </c>
     </row>
-    <row r="32" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>126</v>
       </c>
@@ -12941,8 +13037,11 @@
       <c r="DV32" t="s">
         <v>126</v>
       </c>
+      <c r="DW32">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -13321,8 +13420,11 @@
       <c r="DV33" t="s">
         <v>126</v>
       </c>
+      <c r="DW33">
+        <v>31</v>
+      </c>
     </row>
-    <row r="34" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -13701,8 +13803,11 @@
       <c r="DV34" t="s">
         <v>126</v>
       </c>
+      <c r="DW34">
+        <v>32</v>
+      </c>
     </row>
-    <row r="35" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -14081,8 +14186,11 @@
       <c r="DV35" t="s">
         <v>126</v>
       </c>
+      <c r="DW35">
+        <v>33</v>
+      </c>
     </row>
-    <row r="36" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>126</v>
       </c>
@@ -14461,8 +14569,11 @@
       <c r="DV36" t="s">
         <v>126</v>
       </c>
+      <c r="DW36">
+        <v>34</v>
+      </c>
     </row>
-    <row r="37" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -14841,8 +14952,11 @@
       <c r="DV37" t="s">
         <v>126</v>
       </c>
+      <c r="DW37">
+        <v>35</v>
+      </c>
     </row>
-    <row r="38" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>126</v>
       </c>
@@ -15221,8 +15335,11 @@
       <c r="DV38" t="s">
         <v>126</v>
       </c>
+      <c r="DW38">
+        <v>36</v>
+      </c>
     </row>
-    <row r="39" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -15601,8 +15718,11 @@
       <c r="DV39" t="s">
         <v>126</v>
       </c>
+      <c r="DW39">
+        <v>37</v>
+      </c>
     </row>
-    <row r="40" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -15981,8 +16101,11 @@
       <c r="DV40" t="s">
         <v>126</v>
       </c>
+      <c r="DW40">
+        <v>38</v>
+      </c>
     </row>
-    <row r="41" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -16361,8 +16484,11 @@
       <c r="DV41" t="s">
         <v>126</v>
       </c>
+      <c r="DW41">
+        <v>39</v>
+      </c>
     </row>
-    <row r="42" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -16741,8 +16867,11 @@
       <c r="DV42" t="s">
         <v>126</v>
       </c>
+      <c r="DW42">
+        <v>40</v>
+      </c>
     </row>
-    <row r="43" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -17121,8 +17250,11 @@
       <c r="DV43" t="s">
         <v>126</v>
       </c>
+      <c r="DW43">
+        <v>41</v>
+      </c>
     </row>
-    <row r="44" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -17501,8 +17633,11 @@
       <c r="DV44" t="s">
         <v>126</v>
       </c>
+      <c r="DW44">
+        <v>42</v>
+      </c>
     </row>
-    <row r="45" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -17881,8 +18016,11 @@
       <c r="DV45" t="s">
         <v>126</v>
       </c>
+      <c r="DW45">
+        <v>43</v>
+      </c>
     </row>
-    <row r="46" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -18261,8 +18399,11 @@
       <c r="DV46" t="s">
         <v>126</v>
       </c>
+      <c r="DW46">
+        <v>44</v>
+      </c>
     </row>
-    <row r="47" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -18641,8 +18782,11 @@
       <c r="DV47" t="s">
         <v>126</v>
       </c>
+      <c r="DW47">
+        <v>45</v>
+      </c>
     </row>
-    <row r="48" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -19021,8 +19165,11 @@
       <c r="DV48" t="s">
         <v>126</v>
       </c>
+      <c r="DW48">
+        <v>46</v>
+      </c>
     </row>
-    <row r="49" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -19401,8 +19548,11 @@
       <c r="DV49" t="s">
         <v>126</v>
       </c>
+      <c r="DW49">
+        <v>47</v>
+      </c>
     </row>
-    <row r="50" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>126</v>
       </c>
@@ -19781,8 +19931,11 @@
       <c r="DV50" t="s">
         <v>126</v>
       </c>
+      <c r="DW50">
+        <v>48</v>
+      </c>
     </row>
-    <row r="51" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -20161,8 +20314,11 @@
       <c r="DV51" t="s">
         <v>126</v>
       </c>
+      <c r="DW51">
+        <v>49</v>
+      </c>
     </row>
-    <row r="52" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -20541,8 +20697,11 @@
       <c r="DV52" t="s">
         <v>126</v>
       </c>
+      <c r="DW52">
+        <v>50</v>
+      </c>
     </row>
-    <row r="53" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>126</v>
       </c>
@@ -20921,8 +21080,11 @@
       <c r="DV53" t="s">
         <v>126</v>
       </c>
+      <c r="DW53">
+        <v>51</v>
+      </c>
     </row>
-    <row r="54" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -21301,8 +21463,11 @@
       <c r="DV54" t="s">
         <v>126</v>
       </c>
+      <c r="DW54">
+        <v>52</v>
+      </c>
     </row>
-    <row r="55" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -21681,8 +21846,11 @@
       <c r="DV55" t="s">
         <v>126</v>
       </c>
+      <c r="DW55">
+        <v>53</v>
+      </c>
     </row>
-    <row r="56" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -22061,8 +22229,11 @@
       <c r="DV56" t="s">
         <v>126</v>
       </c>
+      <c r="DW56">
+        <v>54</v>
+      </c>
     </row>
-    <row r="57" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -22441,8 +22612,11 @@
       <c r="DV57" t="s">
         <v>126</v>
       </c>
+      <c r="DW57">
+        <v>55</v>
+      </c>
     </row>
-    <row r="58" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -22821,8 +22995,11 @@
       <c r="DV58" t="s">
         <v>126</v>
       </c>
+      <c r="DW58">
+        <v>56</v>
+      </c>
     </row>
-    <row r="59" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>126</v>
       </c>
@@ -23201,8 +23378,11 @@
       <c r="DV59" t="s">
         <v>126</v>
       </c>
+      <c r="DW59">
+        <v>57</v>
+      </c>
     </row>
-    <row r="60" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -23581,8 +23761,11 @@
       <c r="DV60" t="s">
         <v>126</v>
       </c>
+      <c r="DW60">
+        <v>58</v>
+      </c>
     </row>
-    <row r="61" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -23961,8 +24144,11 @@
       <c r="DV61" t="s">
         <v>126</v>
       </c>
+      <c r="DW61">
+        <v>59</v>
+      </c>
     </row>
-    <row r="62" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -24341,8 +24527,11 @@
       <c r="DV62" t="s">
         <v>126</v>
       </c>
+      <c r="DW62">
+        <v>60</v>
+      </c>
     </row>
-    <row r="63" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -24721,8 +24910,11 @@
       <c r="DV63" t="s">
         <v>126</v>
       </c>
+      <c r="DW63">
+        <v>61</v>
+      </c>
     </row>
-    <row r="64" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -25101,8 +25293,11 @@
       <c r="DV64" t="s">
         <v>126</v>
       </c>
+      <c r="DW64">
+        <v>62</v>
+      </c>
     </row>
-    <row r="65" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -25481,8 +25676,11 @@
       <c r="DV65" t="s">
         <v>126</v>
       </c>
+      <c r="DW65">
+        <v>63</v>
+      </c>
     </row>
-    <row r="66" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -25861,8 +26059,11 @@
       <c r="DV66" t="s">
         <v>126</v>
       </c>
+      <c r="DW66">
+        <v>64</v>
+      </c>
     </row>
-    <row r="67" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -26241,8 +26442,11 @@
       <c r="DV67" t="s">
         <v>126</v>
       </c>
+      <c r="DW67">
+        <v>65</v>
+      </c>
     </row>
-    <row r="68" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -26621,8 +26825,11 @@
       <c r="DV68" t="s">
         <v>126</v>
       </c>
+      <c r="DW68">
+        <v>66</v>
+      </c>
     </row>
-    <row r="69" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -27001,8 +27208,11 @@
       <c r="DV69" t="s">
         <v>126</v>
       </c>
+      <c r="DW69">
+        <v>67</v>
+      </c>
     </row>
-    <row r="70" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -27381,8 +27591,11 @@
       <c r="DV70" t="s">
         <v>126</v>
       </c>
+      <c r="DW70">
+        <v>68</v>
+      </c>
     </row>
-    <row r="71" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -27761,8 +27974,11 @@
       <c r="DV71" t="s">
         <v>126</v>
       </c>
+      <c r="DW71">
+        <v>69</v>
+      </c>
     </row>
-    <row r="72" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -28141,8 +28357,11 @@
       <c r="DV72" t="s">
         <v>126</v>
       </c>
+      <c r="DW72">
+        <v>70</v>
+      </c>
     </row>
-    <row r="73" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -28521,8 +28740,11 @@
       <c r="DV73" t="s">
         <v>126</v>
       </c>
+      <c r="DW73">
+        <v>71</v>
+      </c>
     </row>
-    <row r="74" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -28901,8 +29123,11 @@
       <c r="DV74" t="s">
         <v>126</v>
       </c>
+      <c r="DW74">
+        <v>72</v>
+      </c>
     </row>
-    <row r="75" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -29281,8 +29506,11 @@
       <c r="DV75" t="s">
         <v>126</v>
       </c>
+      <c r="DW75">
+        <v>73</v>
+      </c>
     </row>
-    <row r="76" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -29661,8 +29889,11 @@
       <c r="DV76" t="s">
         <v>126</v>
       </c>
+      <c r="DW76">
+        <v>74</v>
+      </c>
     </row>
-    <row r="77" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -30041,8 +30272,11 @@
       <c r="DV77" t="s">
         <v>126</v>
       </c>
+      <c r="DW77">
+        <v>75</v>
+      </c>
     </row>
-    <row r="78" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -30421,8 +30655,11 @@
       <c r="DV78" t="s">
         <v>126</v>
       </c>
+      <c r="DW78">
+        <v>76</v>
+      </c>
     </row>
-    <row r="79" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -30801,8 +31038,11 @@
       <c r="DV79" t="s">
         <v>126</v>
       </c>
+      <c r="DW79">
+        <v>77</v>
+      </c>
     </row>
-    <row r="80" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>126</v>
       </c>
@@ -31181,8 +31421,11 @@
       <c r="DV80" t="s">
         <v>126</v>
       </c>
+      <c r="DW80">
+        <v>78</v>
+      </c>
     </row>
-    <row r="81" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -31561,8 +31804,11 @@
       <c r="DV81" t="s">
         <v>126</v>
       </c>
+      <c r="DW81">
+        <v>79</v>
+      </c>
     </row>
-    <row r="82" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>126</v>
       </c>
@@ -31941,8 +32187,11 @@
       <c r="DV82" t="s">
         <v>126</v>
       </c>
+      <c r="DW82">
+        <v>80</v>
+      </c>
     </row>
-    <row r="83" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>126</v>
       </c>
@@ -32321,8 +32570,11 @@
       <c r="DV83" t="s">
         <v>126</v>
       </c>
+      <c r="DW83">
+        <v>81</v>
+      </c>
     </row>
-    <row r="84" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -32701,8 +32953,11 @@
       <c r="DV84" t="s">
         <v>126</v>
       </c>
+      <c r="DW84">
+        <v>82</v>
+      </c>
     </row>
-    <row r="85" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>126</v>
       </c>
@@ -33081,8 +33336,11 @@
       <c r="DV85" t="s">
         <v>126</v>
       </c>
+      <c r="DW85">
+        <v>83</v>
+      </c>
     </row>
-    <row r="86" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>126</v>
       </c>
@@ -33461,8 +33719,11 @@
       <c r="DV86" t="s">
         <v>126</v>
       </c>
+      <c r="DW86">
+        <v>84</v>
+      </c>
     </row>
-    <row r="87" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -33841,8 +34102,11 @@
       <c r="DV87" t="s">
         <v>126</v>
       </c>
+      <c r="DW87">
+        <v>85</v>
+      </c>
     </row>
-    <row r="88" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>126</v>
       </c>
@@ -34221,8 +34485,11 @@
       <c r="DV88" t="s">
         <v>126</v>
       </c>
+      <c r="DW88">
+        <v>86</v>
+      </c>
     </row>
-    <row r="89" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -34601,8 +34868,11 @@
       <c r="DV89" t="s">
         <v>126</v>
       </c>
+      <c r="DW89">
+        <v>87</v>
+      </c>
     </row>
-    <row r="90" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -34981,8 +35251,11 @@
       <c r="DV90" t="s">
         <v>126</v>
       </c>
+      <c r="DW90">
+        <v>88</v>
+      </c>
     </row>
-    <row r="91" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -35361,8 +35634,11 @@
       <c r="DV91" t="s">
         <v>126</v>
       </c>
+      <c r="DW91">
+        <v>89</v>
+      </c>
     </row>
-    <row r="92" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>126</v>
       </c>
@@ -35741,8 +36017,11 @@
       <c r="DV92" t="s">
         <v>126</v>
       </c>
+      <c r="DW92">
+        <v>90</v>
+      </c>
     </row>
-    <row r="93" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -36121,8 +36400,11 @@
       <c r="DV93" t="s">
         <v>126</v>
       </c>
+      <c r="DW93">
+        <v>91</v>
+      </c>
     </row>
-    <row r="94" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>126</v>
       </c>
@@ -36501,8 +36783,11 @@
       <c r="DV94" t="s">
         <v>126</v>
       </c>
+      <c r="DW94">
+        <v>92</v>
+      </c>
     </row>
-    <row r="95" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -36881,8 +37166,11 @@
       <c r="DV95" t="s">
         <v>126</v>
       </c>
+      <c r="DW95">
+        <v>93</v>
+      </c>
     </row>
-    <row r="96" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -37261,8 +37549,11 @@
       <c r="DV96" t="s">
         <v>126</v>
       </c>
+      <c r="DW96">
+        <v>94</v>
+      </c>
     </row>
-    <row r="97" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -37641,8 +37932,11 @@
       <c r="DV97" t="s">
         <v>126</v>
       </c>
+      <c r="DW97">
+        <v>95</v>
+      </c>
     </row>
-    <row r="98" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -38021,8 +38315,11 @@
       <c r="DV98" t="s">
         <v>126</v>
       </c>
+      <c r="DW98">
+        <v>96</v>
+      </c>
     </row>
-    <row r="99" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -38401,8 +38698,11 @@
       <c r="DV99" t="s">
         <v>126</v>
       </c>
+      <c r="DW99">
+        <v>97</v>
+      </c>
     </row>
-    <row r="100" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -38781,8 +39081,11 @@
       <c r="DV100" t="s">
         <v>126</v>
       </c>
+      <c r="DW100">
+        <v>98</v>
+      </c>
     </row>
-    <row r="101" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -39161,8 +39464,11 @@
       <c r="DV101" t="s">
         <v>126</v>
       </c>
+      <c r="DW101">
+        <v>99</v>
+      </c>
     </row>
-    <row r="102" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -39541,8 +39847,11 @@
       <c r="DV102" t="s">
         <v>126</v>
       </c>
+      <c r="DW102">
+        <v>100</v>
+      </c>
     </row>
-    <row r="103" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>126</v>
       </c>
@@ -39921,8 +40230,11 @@
       <c r="DV103" t="s">
         <v>126</v>
       </c>
+      <c r="DW103">
+        <v>101</v>
+      </c>
     </row>
-    <row r="104" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -40301,8 +40613,11 @@
       <c r="DV104" t="s">
         <v>126</v>
       </c>
+      <c r="DW104">
+        <v>102</v>
+      </c>
     </row>
-    <row r="105" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -40681,8 +40996,11 @@
       <c r="DV105" t="s">
         <v>126</v>
       </c>
+      <c r="DW105">
+        <v>103</v>
+      </c>
     </row>
-    <row r="106" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>126</v>
       </c>
@@ -41061,8 +41379,11 @@
       <c r="DV106" t="s">
         <v>126</v>
       </c>
+      <c r="DW106">
+        <v>104</v>
+      </c>
     </row>
-    <row r="107" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -41441,8 +41762,11 @@
       <c r="DV107" t="s">
         <v>126</v>
       </c>
+      <c r="DW107">
+        <v>105</v>
+      </c>
     </row>
-    <row r="108" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -41821,8 +42145,11 @@
       <c r="DV108" t="s">
         <v>126</v>
       </c>
+      <c r="DW108">
+        <v>106</v>
+      </c>
     </row>
-    <row r="109" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -42201,8 +42528,11 @@
       <c r="DV109" t="s">
         <v>126</v>
       </c>
+      <c r="DW109">
+        <v>107</v>
+      </c>
     </row>
-    <row r="110" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -42581,8 +42911,11 @@
       <c r="DV110" t="s">
         <v>126</v>
       </c>
+      <c r="DW110">
+        <v>108</v>
+      </c>
     </row>
-    <row r="111" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -42961,8 +43294,11 @@
       <c r="DV111" t="s">
         <v>126</v>
       </c>
+      <c r="DW111">
+        <v>109</v>
+      </c>
     </row>
-    <row r="112" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -43341,8 +43677,11 @@
       <c r="DV112" t="s">
         <v>126</v>
       </c>
+      <c r="DW112">
+        <v>110</v>
+      </c>
     </row>
-    <row r="113" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -43721,8 +44060,11 @@
       <c r="DV113" t="s">
         <v>126</v>
       </c>
+      <c r="DW113">
+        <v>111</v>
+      </c>
     </row>
-    <row r="114" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -44101,8 +44443,11 @@
       <c r="DV114" t="s">
         <v>126</v>
       </c>
+      <c r="DW114">
+        <v>112</v>
+      </c>
     </row>
-    <row r="115" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -44481,8 +44826,11 @@
       <c r="DV115" t="s">
         <v>126</v>
       </c>
+      <c r="DW115">
+        <v>113</v>
+      </c>
     </row>
-    <row r="116" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -44861,8 +45209,11 @@
       <c r="DV116" t="s">
         <v>126</v>
       </c>
+      <c r="DW116">
+        <v>114</v>
+      </c>
     </row>
-    <row r="117" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -45241,8 +45592,11 @@
       <c r="DV117" t="s">
         <v>126</v>
       </c>
+      <c r="DW117">
+        <v>115</v>
+      </c>
     </row>
-    <row r="118" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -45621,8 +45975,11 @@
       <c r="DV118" t="s">
         <v>126</v>
       </c>
+      <c r="DW118">
+        <v>116</v>
+      </c>
     </row>
-    <row r="119" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>126</v>
       </c>
@@ -46001,8 +46358,11 @@
       <c r="DV119" t="s">
         <v>126</v>
       </c>
+      <c r="DW119">
+        <v>117</v>
+      </c>
     </row>
-    <row r="120" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -46380,6 +46740,9 @@
       </c>
       <c r="DV120" t="s">
         <v>126</v>
+      </c>
+      <c r="DW120">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/classes.xlsx
+++ b/classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\SilkCentralDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AC72A3-52FD-4378-9A65-75EDA7DE4B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03176813-54DC-4D28-ADC8-D78F980BF5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{632FB0EA-6DA6-494B-8AF3-BE74C1C6A47C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15001" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15000" uniqueCount="126">
   <si>
     <t>a2</t>
   </si>
@@ -415,9 +415,6 @@
   <si>
     <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
-  <si>
-    <t>silkid</t>
-  </si>
 </sst>
 </file>
 
@@ -774,397 +771,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9D55B0-560E-470E-A75E-3CD47663A7F0}">
-  <dimension ref="A1:DV120"/>
+  <dimension ref="A1:DU120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CM1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CN1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CO1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CP1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CQ1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CR1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CS1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CT1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CU1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CV1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CX1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CY1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CZ1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DA1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DB1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DC1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DD1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DE1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DF1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DG1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DH1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DI1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DJ1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="DK1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="DL1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="DM1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DN1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="DO1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="DP1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DQ1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="DR1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="DS1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DT1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DU1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+    <row r="2" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -1538,13 +1532,10 @@
       <c r="DU2" t="s">
         <v>125</v>
       </c>
-      <c r="DV2" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="3" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>125</v>
@@ -1918,13 +1909,10 @@
       <c r="DU3" t="s">
         <v>125</v>
       </c>
-      <c r="DV3" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="4" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
+    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>125</v>
@@ -2298,13 +2286,10 @@
       <c r="DU4" t="s">
         <v>125</v>
       </c>
-      <c r="DV4" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="5" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>125</v>
@@ -2678,13 +2663,10 @@
       <c r="DU5" t="s">
         <v>125</v>
       </c>
-      <c r="DV5" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="6" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
+    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>125</v>
@@ -3058,13 +3040,10 @@
       <c r="DU6" t="s">
         <v>125</v>
       </c>
-      <c r="DV6" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="7" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
+    <row r="7" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>125</v>
@@ -3438,13 +3417,10 @@
       <c r="DU7" t="s">
         <v>125</v>
       </c>
-      <c r="DV7" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="8" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
+    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
@@ -3818,13 +3794,10 @@
       <c r="DU8" t="s">
         <v>125</v>
       </c>
-      <c r="DV8" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="9" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
+    <row r="9" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>125</v>
@@ -4198,13 +4171,10 @@
       <c r="DU9" t="s">
         <v>125</v>
       </c>
-      <c r="DV9" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="10" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
+    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>125</v>
@@ -4578,13 +4548,10 @@
       <c r="DU10" t="s">
         <v>125</v>
       </c>
-      <c r="DV10" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="11" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
+    <row r="11" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>125</v>
@@ -4958,13 +4925,10 @@
       <c r="DU11" t="s">
         <v>125</v>
       </c>
-      <c r="DV11" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="12" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
+    <row r="12" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>125</v>
@@ -5338,13 +5302,10 @@
       <c r="DU12" t="s">
         <v>125</v>
       </c>
-      <c r="DV12" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="13" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
+    <row r="13" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>125</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
@@ -5718,13 +5679,10 @@
       <c r="DU13" t="s">
         <v>125</v>
       </c>
-      <c r="DV13" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="14" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
+    <row r="14" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
       </c>
       <c r="B14" t="s">
         <v>125</v>
@@ -6098,13 +6056,10 @@
       <c r="DU14" t="s">
         <v>125</v>
       </c>
-      <c r="DV14" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="15" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
+    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>125</v>
@@ -6478,13 +6433,10 @@
       <c r="DU15" t="s">
         <v>125</v>
       </c>
-      <c r="DV15" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="16" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
+    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
@@ -6858,13 +6810,10 @@
       <c r="DU16" t="s">
         <v>125</v>
       </c>
-      <c r="DV16" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="17" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
+    <row r="17" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>125</v>
@@ -7238,13 +7187,10 @@
       <c r="DU17" t="s">
         <v>125</v>
       </c>
-      <c r="DV17" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="18" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
+    <row r="18" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>125</v>
       </c>
       <c r="B18" t="s">
         <v>125</v>
@@ -7618,13 +7564,10 @@
       <c r="DU18" t="s">
         <v>125</v>
       </c>
-      <c r="DV18" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="19" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
+    <row r="19" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>125</v>
       </c>
       <c r="B19" t="s">
         <v>125</v>
@@ -7998,13 +7941,10 @@
       <c r="DU19" t="s">
         <v>125</v>
       </c>
-      <c r="DV19" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="20" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
+    <row r="20" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>125</v>
@@ -8378,13 +8318,10 @@
       <c r="DU20" t="s">
         <v>125</v>
       </c>
-      <c r="DV20" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="21" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
+    <row r="21" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>125</v>
       </c>
       <c r="B21" t="s">
         <v>125</v>
@@ -8758,13 +8695,10 @@
       <c r="DU21" t="s">
         <v>125</v>
       </c>
-      <c r="DV21" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="22" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
+    <row r="22" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
       <c r="B22" t="s">
         <v>125</v>
@@ -9138,13 +9072,10 @@
       <c r="DU22" t="s">
         <v>125</v>
       </c>
-      <c r="DV22" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="23" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
+    <row r="23" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>125</v>
       </c>
       <c r="B23" t="s">
         <v>125</v>
@@ -9518,13 +9449,10 @@
       <c r="DU23" t="s">
         <v>125</v>
       </c>
-      <c r="DV23" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="24" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
+    <row r="24" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>125</v>
       </c>
       <c r="B24" t="s">
         <v>125</v>
@@ -9898,13 +9826,10 @@
       <c r="DU24" t="s">
         <v>125</v>
       </c>
-      <c r="DV24" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="25" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
+    <row r="25" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>125</v>
@@ -10278,13 +10203,10 @@
       <c r="DU25" t="s">
         <v>125</v>
       </c>
-      <c r="DV25" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="26" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
+    <row r="26" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>125</v>
@@ -10658,13 +10580,10 @@
       <c r="DU26" t="s">
         <v>125</v>
       </c>
-      <c r="DV26" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="27" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
+    <row r="27" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>125</v>
       </c>
       <c r="B27" t="s">
         <v>125</v>
@@ -11038,13 +10957,10 @@
       <c r="DU27" t="s">
         <v>125</v>
       </c>
-      <c r="DV27" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="28" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
+    <row r="28" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>125</v>
       </c>
       <c r="B28" t="s">
         <v>125</v>
@@ -11418,13 +11334,10 @@
       <c r="DU28" t="s">
         <v>125</v>
       </c>
-      <c r="DV28" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="29" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
+    <row r="29" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>125</v>
       </c>
       <c r="B29" t="s">
         <v>125</v>
@@ -11798,13 +11711,10 @@
       <c r="DU29" t="s">
         <v>125</v>
       </c>
-      <c r="DV29" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="30" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
+    <row r="30" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
       </c>
       <c r="B30" t="s">
         <v>125</v>
@@ -12178,13 +12088,10 @@
       <c r="DU30" t="s">
         <v>125</v>
       </c>
-      <c r="DV30" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="31" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
+    <row r="31" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>125</v>
       </c>
       <c r="B31" t="s">
         <v>125</v>
@@ -12558,13 +12465,10 @@
       <c r="DU31" t="s">
         <v>125</v>
       </c>
-      <c r="DV31" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="32" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
+    <row r="32" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -12938,13 +12842,10 @@
       <c r="DU32" t="s">
         <v>125</v>
       </c>
-      <c r="DV32" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="33" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
+    <row r="33" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>125</v>
       </c>
       <c r="B33" t="s">
         <v>125</v>
@@ -13318,13 +13219,10 @@
       <c r="DU33" t="s">
         <v>125</v>
       </c>
-      <c r="DV33" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="34" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
+    <row r="34" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>125</v>
       </c>
       <c r="B34" t="s">
         <v>125</v>
@@ -13698,13 +13596,10 @@
       <c r="DU34" t="s">
         <v>125</v>
       </c>
-      <c r="DV34" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="35" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
+    <row r="35" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
@@ -14078,13 +13973,10 @@
       <c r="DU35" t="s">
         <v>125</v>
       </c>
-      <c r="DV35" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="36" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
+    <row r="36" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>125</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
@@ -14458,13 +14350,10 @@
       <c r="DU36" t="s">
         <v>125</v>
       </c>
-      <c r="DV36" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="37" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
+    <row r="37" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>125</v>
       </c>
       <c r="B37" t="s">
         <v>125</v>
@@ -14838,13 +14727,10 @@
       <c r="DU37" t="s">
         <v>125</v>
       </c>
-      <c r="DV37" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="38" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
+    <row r="38" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>125</v>
       </c>
       <c r="B38" t="s">
         <v>125</v>
@@ -15218,13 +15104,10 @@
       <c r="DU38" t="s">
         <v>125</v>
       </c>
-      <c r="DV38" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="39" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
+    <row r="39" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>125</v>
       </c>
       <c r="B39" t="s">
         <v>125</v>
@@ -15598,13 +15481,10 @@
       <c r="DU39" t="s">
         <v>125</v>
       </c>
-      <c r="DV39" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="40" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
+    <row r="40" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>125</v>
       </c>
       <c r="B40" t="s">
         <v>125</v>
@@ -15978,13 +15858,10 @@
       <c r="DU40" t="s">
         <v>125</v>
       </c>
-      <c r="DV40" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="41" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
+    <row r="41" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>125</v>
       </c>
       <c r="B41" t="s">
         <v>125</v>
@@ -16358,13 +16235,10 @@
       <c r="DU41" t="s">
         <v>125</v>
       </c>
-      <c r="DV41" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="42" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
+    <row r="42" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>125</v>
       </c>
       <c r="B42" t="s">
         <v>125</v>
@@ -16738,13 +16612,10 @@
       <c r="DU42" t="s">
         <v>125</v>
       </c>
-      <c r="DV42" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="43" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
+    <row r="43" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>125</v>
       </c>
       <c r="B43" t="s">
         <v>125</v>
@@ -17118,13 +16989,10 @@
       <c r="DU43" t="s">
         <v>125</v>
       </c>
-      <c r="DV43" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="44" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
+    <row r="44" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>125</v>
       </c>
       <c r="B44" t="s">
         <v>125</v>
@@ -17498,13 +17366,10 @@
       <c r="DU44" t="s">
         <v>125</v>
       </c>
-      <c r="DV44" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="45" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
+    <row r="45" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>125</v>
       </c>
       <c r="B45" t="s">
         <v>125</v>
@@ -17878,13 +17743,10 @@
       <c r="DU45" t="s">
         <v>125</v>
       </c>
-      <c r="DV45" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="46" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
+    <row r="46" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>125</v>
       </c>
       <c r="B46" t="s">
         <v>125</v>
@@ -18258,13 +18120,10 @@
       <c r="DU46" t="s">
         <v>125</v>
       </c>
-      <c r="DV46" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="47" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
+    <row r="47" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>125</v>
       </c>
       <c r="B47" t="s">
         <v>125</v>
@@ -18638,13 +18497,10 @@
       <c r="DU47" t="s">
         <v>125</v>
       </c>
-      <c r="DV47" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="48" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
+    <row r="48" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>125</v>
       </c>
       <c r="B48" t="s">
         <v>125</v>
@@ -19018,13 +18874,10 @@
       <c r="DU48" t="s">
         <v>125</v>
       </c>
-      <c r="DV48" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="49" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
+    <row r="49" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>125</v>
       </c>
       <c r="B49" t="s">
         <v>125</v>
@@ -19398,13 +19251,10 @@
       <c r="DU49" t="s">
         <v>125</v>
       </c>
-      <c r="DV49" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="50" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
+    <row r="50" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>125</v>
       </c>
       <c r="B50" t="s">
         <v>125</v>
@@ -19778,13 +19628,10 @@
       <c r="DU50" t="s">
         <v>125</v>
       </c>
-      <c r="DV50" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="51" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>49</v>
+    <row r="51" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>125</v>
       </c>
       <c r="B51" t="s">
         <v>125</v>
@@ -20158,13 +20005,10 @@
       <c r="DU51" t="s">
         <v>125</v>
       </c>
-      <c r="DV51" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="52" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
+    <row r="52" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>125</v>
       </c>
       <c r="B52" t="s">
         <v>125</v>
@@ -20538,13 +20382,10 @@
       <c r="DU52" t="s">
         <v>125</v>
       </c>
-      <c r="DV52" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="53" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>51</v>
+    <row r="53" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>125</v>
       </c>
       <c r="B53" t="s">
         <v>125</v>
@@ -20918,13 +20759,10 @@
       <c r="DU53" t="s">
         <v>125</v>
       </c>
-      <c r="DV53" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="54" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>52</v>
+    <row r="54" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>125</v>
       </c>
       <c r="B54" t="s">
         <v>125</v>
@@ -21298,13 +21136,10 @@
       <c r="DU54" t="s">
         <v>125</v>
       </c>
-      <c r="DV54" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="55" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>53</v>
+    <row r="55" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>125</v>
       </c>
       <c r="B55" t="s">
         <v>125</v>
@@ -21678,13 +21513,10 @@
       <c r="DU55" t="s">
         <v>125</v>
       </c>
-      <c r="DV55" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="56" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>54</v>
+    <row r="56" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>125</v>
       </c>
       <c r="B56" t="s">
         <v>125</v>
@@ -22058,13 +21890,10 @@
       <c r="DU56" t="s">
         <v>125</v>
       </c>
-      <c r="DV56" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="57" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>55</v>
+    <row r="57" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>125</v>
       </c>
       <c r="B57" t="s">
         <v>125</v>
@@ -22438,13 +22267,10 @@
       <c r="DU57" t="s">
         <v>125</v>
       </c>
-      <c r="DV57" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="58" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>56</v>
+    <row r="58" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>125</v>
       </c>
       <c r="B58" t="s">
         <v>125</v>
@@ -22818,13 +22644,10 @@
       <c r="DU58" t="s">
         <v>125</v>
       </c>
-      <c r="DV58" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="59" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>57</v>
+    <row r="59" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>125</v>
       </c>
       <c r="B59" t="s">
         <v>125</v>
@@ -23198,13 +23021,10 @@
       <c r="DU59" t="s">
         <v>125</v>
       </c>
-      <c r="DV59" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="60" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>58</v>
+    <row r="60" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>125</v>
       </c>
       <c r="B60" t="s">
         <v>125</v>
@@ -23578,13 +23398,10 @@
       <c r="DU60" t="s">
         <v>125</v>
       </c>
-      <c r="DV60" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="61" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59</v>
+    <row r="61" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>125</v>
       </c>
       <c r="B61" t="s">
         <v>125</v>
@@ -23958,13 +23775,10 @@
       <c r="DU61" t="s">
         <v>125</v>
       </c>
-      <c r="DV61" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="62" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>60</v>
+    <row r="62" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>125</v>
       </c>
       <c r="B62" t="s">
         <v>125</v>
@@ -24338,13 +24152,10 @@
       <c r="DU62" t="s">
         <v>125</v>
       </c>
-      <c r="DV62" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="63" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>61</v>
+    <row r="63" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>125</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
@@ -24718,13 +24529,10 @@
       <c r="DU63" t="s">
         <v>125</v>
       </c>
-      <c r="DV63" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="64" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>62</v>
+    <row r="64" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>125</v>
       </c>
       <c r="B64" t="s">
         <v>125</v>
@@ -25098,13 +24906,10 @@
       <c r="DU64" t="s">
         <v>125</v>
       </c>
-      <c r="DV64" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="65" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>63</v>
+    <row r="65" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>125</v>
       </c>
       <c r="B65" t="s">
         <v>125</v>
@@ -25478,13 +25283,10 @@
       <c r="DU65" t="s">
         <v>125</v>
       </c>
-      <c r="DV65" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="66" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>64</v>
+    <row r="66" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>125</v>
       </c>
       <c r="B66" t="s">
         <v>125</v>
@@ -25858,13 +25660,10 @@
       <c r="DU66" t="s">
         <v>125</v>
       </c>
-      <c r="DV66" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="67" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>65</v>
+    <row r="67" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>125</v>
       </c>
       <c r="B67" t="s">
         <v>125</v>
@@ -26238,13 +26037,10 @@
       <c r="DU67" t="s">
         <v>125</v>
       </c>
-      <c r="DV67" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="68" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>66</v>
+    <row r="68" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>125</v>
       </c>
       <c r="B68" t="s">
         <v>125</v>
@@ -26618,13 +26414,10 @@
       <c r="DU68" t="s">
         <v>125</v>
       </c>
-      <c r="DV68" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="69" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>67</v>
+    <row r="69" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>125</v>
       </c>
       <c r="B69" t="s">
         <v>125</v>
@@ -26998,13 +26791,10 @@
       <c r="DU69" t="s">
         <v>125</v>
       </c>
-      <c r="DV69" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="70" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>68</v>
+    <row r="70" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>125</v>
       </c>
       <c r="B70" t="s">
         <v>125</v>
@@ -27378,13 +27168,10 @@
       <c r="DU70" t="s">
         <v>125</v>
       </c>
-      <c r="DV70" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="71" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>69</v>
+    <row r="71" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>125</v>
       </c>
       <c r="B71" t="s">
         <v>125</v>
@@ -27758,13 +27545,10 @@
       <c r="DU71" t="s">
         <v>125</v>
       </c>
-      <c r="DV71" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="72" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>70</v>
+    <row r="72" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>125</v>
       </c>
       <c r="B72" t="s">
         <v>125</v>
@@ -28138,13 +27922,10 @@
       <c r="DU72" t="s">
         <v>125</v>
       </c>
-      <c r="DV72" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="73" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>71</v>
+    <row r="73" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>125</v>
       </c>
       <c r="B73" t="s">
         <v>125</v>
@@ -28518,13 +28299,10 @@
       <c r="DU73" t="s">
         <v>125</v>
       </c>
-      <c r="DV73" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="74" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>72</v>
+    <row r="74" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>125</v>
       </c>
       <c r="B74" t="s">
         <v>125</v>
@@ -28898,13 +28676,10 @@
       <c r="DU74" t="s">
         <v>125</v>
       </c>
-      <c r="DV74" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="75" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>73</v>
+    <row r="75" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>125</v>
       </c>
       <c r="B75" t="s">
         <v>125</v>
@@ -29278,13 +29053,10 @@
       <c r="DU75" t="s">
         <v>125</v>
       </c>
-      <c r="DV75" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="76" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>74</v>
+    <row r="76" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>125</v>
       </c>
       <c r="B76" t="s">
         <v>125</v>
@@ -29658,13 +29430,10 @@
       <c r="DU76" t="s">
         <v>125</v>
       </c>
-      <c r="DV76" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="77" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>75</v>
+    <row r="77" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>125</v>
       </c>
       <c r="B77" t="s">
         <v>125</v>
@@ -30038,13 +29807,10 @@
       <c r="DU77" t="s">
         <v>125</v>
       </c>
-      <c r="DV77" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="78" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>76</v>
+    <row r="78" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>125</v>
       </c>
       <c r="B78" t="s">
         <v>125</v>
@@ -30418,13 +30184,10 @@
       <c r="DU78" t="s">
         <v>125</v>
       </c>
-      <c r="DV78" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="79" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>77</v>
+    <row r="79" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>125</v>
       </c>
       <c r="B79" t="s">
         <v>125</v>
@@ -30798,13 +30561,10 @@
       <c r="DU79" t="s">
         <v>125</v>
       </c>
-      <c r="DV79" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="80" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>78</v>
+    <row r="80" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>125</v>
       </c>
       <c r="B80" t="s">
         <v>125</v>
@@ -31178,13 +30938,10 @@
       <c r="DU80" t="s">
         <v>125</v>
       </c>
-      <c r="DV80" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="81" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>79</v>
+    <row r="81" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>125</v>
       </c>
       <c r="B81" t="s">
         <v>125</v>
@@ -31558,13 +31315,10 @@
       <c r="DU81" t="s">
         <v>125</v>
       </c>
-      <c r="DV81" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="82" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>80</v>
+    <row r="82" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>125</v>
       </c>
       <c r="B82" t="s">
         <v>125</v>
@@ -31938,13 +31692,10 @@
       <c r="DU82" t="s">
         <v>125</v>
       </c>
-      <c r="DV82" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="83" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>81</v>
+    <row r="83" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>125</v>
       </c>
       <c r="B83" t="s">
         <v>125</v>
@@ -32318,13 +32069,10 @@
       <c r="DU83" t="s">
         <v>125</v>
       </c>
-      <c r="DV83" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="84" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>82</v>
+    <row r="84" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>125</v>
       </c>
       <c r="B84" t="s">
         <v>125</v>
@@ -32698,13 +32446,10 @@
       <c r="DU84" t="s">
         <v>125</v>
       </c>
-      <c r="DV84" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="85" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>83</v>
+    <row r="85" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>125</v>
       </c>
       <c r="B85" t="s">
         <v>125</v>
@@ -33078,13 +32823,10 @@
       <c r="DU85" t="s">
         <v>125</v>
       </c>
-      <c r="DV85" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="86" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>84</v>
+    <row r="86" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>125</v>
       </c>
       <c r="B86" t="s">
         <v>125</v>
@@ -33458,13 +33200,10 @@
       <c r="DU86" t="s">
         <v>125</v>
       </c>
-      <c r="DV86" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="87" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>85</v>
+    <row r="87" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>125</v>
       </c>
       <c r="B87" t="s">
         <v>125</v>
@@ -33838,13 +33577,10 @@
       <c r="DU87" t="s">
         <v>125</v>
       </c>
-      <c r="DV87" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="88" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>86</v>
+    <row r="88" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>125</v>
       </c>
       <c r="B88" t="s">
         <v>125</v>
@@ -34218,13 +33954,10 @@
       <c r="DU88" t="s">
         <v>125</v>
       </c>
-      <c r="DV88" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="89" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>87</v>
+    <row r="89" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>125</v>
       </c>
       <c r="B89" t="s">
         <v>125</v>
@@ -34598,13 +34331,10 @@
       <c r="DU89" t="s">
         <v>125</v>
       </c>
-      <c r="DV89" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="90" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>88</v>
+    <row r="90" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>125</v>
       </c>
       <c r="B90" t="s">
         <v>125</v>
@@ -34978,13 +34708,10 @@
       <c r="DU90" t="s">
         <v>125</v>
       </c>
-      <c r="DV90" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="91" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>89</v>
+    <row r="91" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>125</v>
       </c>
       <c r="B91" t="s">
         <v>125</v>
@@ -35358,13 +35085,10 @@
       <c r="DU91" t="s">
         <v>125</v>
       </c>
-      <c r="DV91" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="92" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>90</v>
+    <row r="92" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>125</v>
       </c>
       <c r="B92" t="s">
         <v>125</v>
@@ -35738,13 +35462,10 @@
       <c r="DU92" t="s">
         <v>125</v>
       </c>
-      <c r="DV92" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="93" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>91</v>
+    <row r="93" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>125</v>
       </c>
       <c r="B93" t="s">
         <v>125</v>
@@ -36118,13 +35839,10 @@
       <c r="DU93" t="s">
         <v>125</v>
       </c>
-      <c r="DV93" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="94" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>92</v>
+    <row r="94" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>125</v>
       </c>
       <c r="B94" t="s">
         <v>125</v>
@@ -36498,13 +36216,10 @@
       <c r="DU94" t="s">
         <v>125</v>
       </c>
-      <c r="DV94" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="95" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>93</v>
+    <row r="95" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>125</v>
       </c>
       <c r="B95" t="s">
         <v>125</v>
@@ -36878,13 +36593,10 @@
       <c r="DU95" t="s">
         <v>125</v>
       </c>
-      <c r="DV95" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="96" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>94</v>
+    <row r="96" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>125</v>
       </c>
       <c r="B96" t="s">
         <v>125</v>
@@ -37258,13 +36970,10 @@
       <c r="DU96" t="s">
         <v>125</v>
       </c>
-      <c r="DV96" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="97" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>95</v>
+    <row r="97" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>125</v>
       </c>
       <c r="B97" t="s">
         <v>125</v>
@@ -37638,13 +37347,10 @@
       <c r="DU97" t="s">
         <v>125</v>
       </c>
-      <c r="DV97" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="98" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>96</v>
+    <row r="98" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>125</v>
       </c>
       <c r="B98" t="s">
         <v>125</v>
@@ -38018,13 +37724,10 @@
       <c r="DU98" t="s">
         <v>125</v>
       </c>
-      <c r="DV98" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="99" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>97</v>
+    <row r="99" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>125</v>
       </c>
       <c r="B99" t="s">
         <v>125</v>
@@ -38398,13 +38101,10 @@
       <c r="DU99" t="s">
         <v>125</v>
       </c>
-      <c r="DV99" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="100" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>98</v>
+    <row r="100" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>125</v>
       </c>
       <c r="B100" t="s">
         <v>125</v>
@@ -38778,13 +38478,10 @@
       <c r="DU100" t="s">
         <v>125</v>
       </c>
-      <c r="DV100" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="101" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>99</v>
+    <row r="101" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>125</v>
       </c>
       <c r="B101" t="s">
         <v>125</v>
@@ -39158,13 +38855,10 @@
       <c r="DU101" t="s">
         <v>125</v>
       </c>
-      <c r="DV101" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="102" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>100</v>
+    <row r="102" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>125</v>
       </c>
       <c r="B102" t="s">
         <v>125</v>
@@ -39538,13 +39232,10 @@
       <c r="DU102" t="s">
         <v>125</v>
       </c>
-      <c r="DV102" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="103" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>101</v>
+    <row r="103" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>125</v>
       </c>
       <c r="B103" t="s">
         <v>125</v>
@@ -39918,13 +39609,10 @@
       <c r="DU103" t="s">
         <v>125</v>
       </c>
-      <c r="DV103" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="104" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>102</v>
+    <row r="104" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>125</v>
       </c>
       <c r="B104" t="s">
         <v>125</v>
@@ -40298,13 +39986,10 @@
       <c r="DU104" t="s">
         <v>125</v>
       </c>
-      <c r="DV104" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="105" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>103</v>
+    <row r="105" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>125</v>
       </c>
       <c r="B105" t="s">
         <v>125</v>
@@ -40678,13 +40363,10 @@
       <c r="DU105" t="s">
         <v>125</v>
       </c>
-      <c r="DV105" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="106" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>104</v>
+    <row r="106" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>125</v>
       </c>
       <c r="B106" t="s">
         <v>125</v>
@@ -41058,13 +40740,10 @@
       <c r="DU106" t="s">
         <v>125</v>
       </c>
-      <c r="DV106" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="107" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>105</v>
+    <row r="107" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>125</v>
       </c>
       <c r="B107" t="s">
         <v>125</v>
@@ -41438,13 +41117,10 @@
       <c r="DU107" t="s">
         <v>125</v>
       </c>
-      <c r="DV107" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="108" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>106</v>
+    <row r="108" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>125</v>
       </c>
       <c r="B108" t="s">
         <v>125</v>
@@ -41818,13 +41494,10 @@
       <c r="DU108" t="s">
         <v>125</v>
       </c>
-      <c r="DV108" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="109" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>107</v>
+    <row r="109" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>125</v>
       </c>
       <c r="B109" t="s">
         <v>125</v>
@@ -42198,13 +41871,10 @@
       <c r="DU109" t="s">
         <v>125</v>
       </c>
-      <c r="DV109" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="110" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>108</v>
+    <row r="110" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>125</v>
       </c>
       <c r="B110" t="s">
         <v>125</v>
@@ -42578,13 +42248,10 @@
       <c r="DU110" t="s">
         <v>125</v>
       </c>
-      <c r="DV110" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="111" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>109</v>
+    <row r="111" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>125</v>
       </c>
       <c r="B111" t="s">
         <v>125</v>
@@ -42958,13 +42625,10 @@
       <c r="DU111" t="s">
         <v>125</v>
       </c>
-      <c r="DV111" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="112" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>110</v>
+    <row r="112" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>125</v>
       </c>
       <c r="B112" t="s">
         <v>125</v>
@@ -43338,13 +43002,10 @@
       <c r="DU112" t="s">
         <v>125</v>
       </c>
-      <c r="DV112" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="113" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>111</v>
+    <row r="113" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>125</v>
       </c>
       <c r="B113" t="s">
         <v>125</v>
@@ -43718,13 +43379,10 @@
       <c r="DU113" t="s">
         <v>125</v>
       </c>
-      <c r="DV113" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="114" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>112</v>
+    <row r="114" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>125</v>
       </c>
       <c r="B114" t="s">
         <v>125</v>
@@ -44098,13 +43756,10 @@
       <c r="DU114" t="s">
         <v>125</v>
       </c>
-      <c r="DV114" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="115" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>113</v>
+    <row r="115" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>125</v>
       </c>
       <c r="B115" t="s">
         <v>125</v>
@@ -44478,13 +44133,10 @@
       <c r="DU115" t="s">
         <v>125</v>
       </c>
-      <c r="DV115" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="116" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>114</v>
+    <row r="116" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>125</v>
       </c>
       <c r="B116" t="s">
         <v>125</v>
@@ -44858,13 +44510,10 @@
       <c r="DU116" t="s">
         <v>125</v>
       </c>
-      <c r="DV116" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="117" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>115</v>
+    <row r="117" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>125</v>
       </c>
       <c r="B117" t="s">
         <v>125</v>
@@ -45238,13 +44887,10 @@
       <c r="DU117" t="s">
         <v>125</v>
       </c>
-      <c r="DV117" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="118" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>116</v>
+    <row r="118" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>125</v>
       </c>
       <c r="B118" t="s">
         <v>125</v>
@@ -45618,13 +45264,10 @@
       <c r="DU118" t="s">
         <v>125</v>
       </c>
-      <c r="DV118" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="119" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>117</v>
+    <row r="119" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>125</v>
       </c>
       <c r="B119" t="s">
         <v>125</v>
@@ -45998,13 +45641,10 @@
       <c r="DU119" t="s">
         <v>125</v>
       </c>
-      <c r="DV119" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="120" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>118</v>
+    <row r="120" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>125</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
@@ -46376,9 +46016,6 @@
         <v>125</v>
       </c>
       <c r="DU120" t="s">
-        <v>125</v>
-      </c>
-      <c r="DV120" t="s">
         <v>125</v>
       </c>
     </row>

--- a/classes.xlsx
+++ b/classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\SilkCentralDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B3A332-6BB0-429D-AB83-EC20E0F5AB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA30C40D-A2C7-4C2B-A5B5-6917DC2AD88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>silkid</t>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
